--- a/Data/CTL_inputs.xlsx
+++ b/Data/CTL_inputs.xlsx
@@ -607,7 +607,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1760,37 +1760,37 @@
         <v>17</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
